--- a/tables/personal/Age .xlsx
+++ b/tables/personal/Age .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>count</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>15-24</t>
-  </si>
-  <si>
-    <t>7-14</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C3">
-        <v>31.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,21 +427,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4">
         <v>29.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
